--- a/htp.xlsx
+++ b/htp.xlsx
@@ -2,39 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB68428-E4E4-4652-A033-A5389745C82A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE301BB-41CD-420E-B13B-9031A50B046B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
   <si>
-    <t>Rejets et Signalements 929</t>
-  </si>
-  <si>
     <t>OK/KO</t>
   </si>
   <si>
     <t>trameflux</t>
   </si>
   <si>
-    <t>Feuil1</t>
-  </si>
-  <si>
-    <t>saisie OK/KO</t>
-  </si>
-  <si>
     <t>suivisaisieprodite</t>
   </si>
   <si>
@@ -59,9 +51,6 @@
     <t>suivisaisielmde</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>Typologie de la demande</t>
   </si>
   <si>
@@ -98,7 +87,7 @@
     <t>Trame Flux 929</t>
   </si>
   <si>
-    <t>Etat</t>
+    <t>Etat OK/KO</t>
   </si>
 </sst>
 </file>
@@ -452,10 +441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,31 +466,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -508,31 +498,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -540,31 +530,31 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -572,31 +562,31 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -604,31 +594,31 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -638,4 +628,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB758D1-8566-43DB-9BFF-1E9701182241}">
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/htp.xlsx
+++ b/htp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE301BB-41CD-420E-B13B-9031A50B046B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30427400-5A15-41AD-ADA1-514B92D32143}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D1" sqref="D1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/htp.xlsx
+++ b/htp.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30427400-5A15-41AD-ADA1-514B92D32143}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40401E8-934E-4223-9CED-1151987B86AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Etat OK/KO</t>
+  </si>
+  <si>
+    <t>Saisie</t>
   </si>
 </sst>
 </file>
@@ -103,12 +106,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,10 +132,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,8 +454,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,8 +563,8 @@
       <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
-        <v>16</v>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
